--- a/RQ4/ParentID.xlsx
+++ b/RQ4/ParentID.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahsa\Desktop\ESEM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B06471C1-E75E-474D-B967-658D63F61DBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A2D3B9-B0D0-4DF2-8515-FA0EF455CA74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$D$76</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="9">
   <si>
     <t>Parentid</t>
   </si>
@@ -39,13 +42,19 @@
     <t>*</t>
   </si>
   <si>
-    <t>na</t>
-  </si>
-  <si>
     <t>* intercept</t>
   </si>
   <si>
-    <t>Na</t>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>number of families</t>
+  </si>
+  <si>
+    <t>Significancy</t>
   </si>
 </sst>
 </file>
@@ -69,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -77,12 +86,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,18 +422,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D76"/>
+  <dimension ref="B1:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.36328125" customWidth="1"/>
+    <col min="7" max="7" width="15.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -419,73 +446,97 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>147</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>190</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>1554</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>1958</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>4143</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>5874</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>7118</v>
       </c>
@@ -493,10 +544,10 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>7836</v>
       </c>
@@ -507,7 +558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>12333</v>
       </c>
@@ -515,70 +566,70 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>13874</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>15060</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>15138</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>16212</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>16232</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>19560</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
@@ -592,7 +643,7 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
@@ -603,7 +654,7 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
@@ -611,10 +662,10 @@
         <v>35846</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.35">
@@ -622,10 +673,10 @@
         <v>40930</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
@@ -644,10 +695,10 @@
         <v>59758</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
@@ -655,10 +706,10 @@
         <v>67521</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
@@ -666,10 +717,10 @@
         <v>70101</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
@@ -677,10 +728,10 @@
         <v>97582</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.35">
@@ -688,10 +739,10 @@
         <v>264132</v>
       </c>
       <c r="C26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.35">
@@ -699,10 +750,10 @@
         <v>453678</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.35">
@@ -710,10 +761,10 @@
         <v>1434458</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.35">
@@ -721,10 +772,10 @@
         <v>1735275</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.35">
@@ -732,10 +783,10 @@
         <v>1822660</v>
       </c>
       <c r="C30" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
@@ -743,10 +794,10 @@
         <v>1879783</v>
       </c>
       <c r="C31" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.35">
@@ -754,10 +805,10 @@
         <v>1907206</v>
       </c>
       <c r="C32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
@@ -765,10 +816,10 @@
         <v>2165195</v>
       </c>
       <c r="C33" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
@@ -776,7 +827,7 @@
         <v>2261680</v>
       </c>
       <c r="C34" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="s">
         <v>3</v>
@@ -787,10 +838,10 @@
         <v>2367496</v>
       </c>
       <c r="C35" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
@@ -798,10 +849,10 @@
         <v>3159585</v>
       </c>
       <c r="C36" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.35">
@@ -809,10 +860,10 @@
         <v>3449537</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.35">
@@ -820,10 +871,10 @@
         <v>4140044</v>
       </c>
       <c r="C38" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
@@ -834,7 +885,7 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
@@ -853,10 +904,10 @@
         <v>4952332</v>
       </c>
       <c r="C41" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
@@ -864,10 +915,10 @@
         <v>5407976</v>
       </c>
       <c r="C42" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.35">
@@ -875,10 +926,10 @@
         <v>5720337</v>
       </c>
       <c r="C43" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.35">
@@ -897,10 +948,10 @@
         <v>6820392</v>
       </c>
       <c r="C45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.35">
@@ -908,10 +959,10 @@
         <v>7025061</v>
       </c>
       <c r="C46" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.35">
@@ -921,16 +972,19 @@
       <c r="C47" t="s">
         <v>3</v>
       </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>7455595</v>
       </c>
       <c r="C48" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.35">
@@ -938,10 +992,10 @@
         <v>7694902</v>
       </c>
       <c r="C49" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.35">
@@ -949,10 +1003,10 @@
         <v>7864835</v>
       </c>
       <c r="C50" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.35">
@@ -960,10 +1014,10 @@
         <v>8797876</v>
       </c>
       <c r="C51" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.35">
@@ -971,10 +1025,10 @@
         <v>8941324</v>
       </c>
       <c r="C52" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.35">
@@ -982,10 +1036,10 @@
         <v>10032456</v>
       </c>
       <c r="C53" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.35">
@@ -995,11 +1049,17 @@
       <c r="C54" t="s">
         <v>3</v>
       </c>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>11474326</v>
       </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
       <c r="D55" t="s">
         <v>3</v>
       </c>
@@ -1009,10 +1069,10 @@
         <v>11637006</v>
       </c>
       <c r="C56" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.35">
@@ -1020,10 +1080,10 @@
         <v>13350226</v>
       </c>
       <c r="C57" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.35">
@@ -1031,10 +1091,10 @@
         <v>13689208</v>
       </c>
       <c r="C58" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.35">
@@ -1044,6 +1104,9 @@
       <c r="C59" t="s">
         <v>3</v>
       </c>
+      <c r="D59" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B60">
@@ -1052,16 +1115,19 @@
       <c r="C60" t="s">
         <v>3</v>
       </c>
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>15921359</v>
       </c>
       <c r="C61" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.35">
@@ -1069,10 +1135,10 @@
         <v>17770132</v>
       </c>
       <c r="C62" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.35">
@@ -1082,6 +1148,9 @@
       <c r="C63" t="s">
         <v>3</v>
       </c>
+      <c r="D63" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B64">
@@ -1090,6 +1159,9 @@
       <c r="C64" t="s">
         <v>3</v>
       </c>
+      <c r="D64" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B65">
@@ -1107,10 +1179,10 @@
         <v>27653260</v>
       </c>
       <c r="C66" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.35">
@@ -1118,10 +1190,10 @@
         <v>28178404</v>
       </c>
       <c r="C67" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.35">
@@ -1129,10 +1201,10 @@
         <v>28602846</v>
       </c>
       <c r="C68" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.35">
@@ -1140,10 +1212,10 @@
         <v>29796617</v>
       </c>
       <c r="C69" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.35">
@@ -1153,16 +1225,19 @@
       <c r="C70" t="s">
         <v>3</v>
       </c>
+      <c r="D70" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B71">
         <v>33393957</v>
       </c>
       <c r="C71" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.35">
@@ -1170,10 +1245,10 @@
         <v>35118920</v>
       </c>
       <c r="C72" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.35">
@@ -1181,10 +1256,10 @@
         <v>35816410</v>
       </c>
       <c r="C73" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.35">
@@ -1194,21 +1269,27 @@
       <c r="C74" t="s">
         <v>3</v>
       </c>
+      <c r="D74" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B75">
         <v>43106625</v>
       </c>
       <c r="C75" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B76">
         <v>59607953</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
       </c>
       <c r="D76" t="s">
         <v>3</v>
